--- a/data/trans_media/IQ3002_MoAR-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ3002_MoAR-Habitat-trans_media.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según la edad en meses en la que empezaron a comer cereales con gluten</t>
+          <t>Meses en la que empezaron a comer cereales con gluten</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 6,61</t>
+          <t>5,5; 6,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 9,18</t>
+          <t>7,44; 9,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 8,61</t>
+          <t>6,51; 8,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,25</t>
+          <t>5,98; 7,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 8,84</t>
+          <t>6,4; 9,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 7,57</t>
+          <t>5,65; 7,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 6,7</t>
+          <t>5,89; 6,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 8,8</t>
+          <t>7,2; 8,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 8,12</t>
+          <t>6,38; 8,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 7,03</t>
+          <t>5,76; 7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 9,22</t>
+          <t>7,62; 9,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 7,65</t>
+          <t>6,27; 7,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 7,34</t>
+          <t>6,21; 7,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 9,24</t>
+          <t>7,53; 9,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 8,96</t>
+          <t>6,67; 9,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,01</t>
+          <t>6,11; 7,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 9,0</t>
+          <t>7,75; 8,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 8,0</t>
+          <t>6,68; 7,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 7,06</t>
+          <t>5,64; 7,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 8,24</t>
+          <t>6,5; 8,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,5</t>
+          <t>6,42; 8,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 7,24</t>
+          <t>5,71; 7,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 10,24</t>
+          <t>7,36; 10,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,26</t>
+          <t>5,36; 8,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 6,98</t>
+          <t>5,94; 7,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 9,06</t>
+          <t>7,23; 9,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 7,98</t>
+          <t>6,27; 8,02</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,95; 8,64</t>
+          <t>6,9; 8,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 8,31</t>
+          <t>6,23; 8,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 7,58</t>
+          <t>5,54; 7,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 9,08</t>
+          <t>6,8; 9,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 8,55</t>
+          <t>6,8; 8,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 8,16</t>
+          <t>6,22; 8,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 8,51</t>
+          <t>7,07; 8,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 8,09</t>
+          <t>6,69; 8,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,19; 7,52</t>
+          <t>6,28; 7,62</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,45; 7,3</t>
+          <t>6,43; 7,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 8,2</t>
+          <t>7,3; 8,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,54; 7,44</t>
+          <t>6,54; 7,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,64; 7,68</t>
+          <t>6,6; 7,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,5; 8,57</t>
+          <t>7,53; 8,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,68; 7,81</t>
+          <t>6,67; 7,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 7,29</t>
+          <t>6,63; 7,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,56; 8,26</t>
+          <t>7,55; 8,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,73; 7,44</t>
+          <t>6,7; 7,44</t>
         </is>
       </c>
     </row>
